--- a/PyMaster/card.xlsx
+++ b/PyMaster/card.xlsx
@@ -928,11 +928,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1133,1678 +1129,1677 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="14.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="20.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="127.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="41.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="127.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="n">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="n">
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="n">
+      <c r="F7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="n">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="n">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="n">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="n">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="n">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="n">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="n">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="n">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="n">
+      <c r="G13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="n">
+      <c r="G14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="n">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="n">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="n">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="n">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="n">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="n">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="n">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="n">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="n">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="n">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+    <row r="20" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="n">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="n">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="n">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="n">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="n">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="n">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+    <row r="23" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="n">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="n">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="n">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="n">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="n">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="n">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="n">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="n">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="F27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="n">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12" t="n">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="12" t="n">
+      <c r="F31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="G31" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17" t="n">
+      <c r="E32" s="14"/>
+      <c r="F32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="18" t="s">
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="n">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="n">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15" t="n">
+      <c r="G34" s="14"/>
+      <c r="H34" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="n">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="n">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="n">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="n">
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="C37" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="C38" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="n">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="n">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19" t="n">
+      <c r="G39" s="18"/>
+      <c r="H39" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="C40" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="n">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19" t="n">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19" t="n">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="20" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="22" t="n">
+      <c r="C42" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="22" t="n">
+      <c r="F42" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="24" t="s">
+      <c r="H42" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22" t="n">
+      <c r="E43" s="21"/>
+      <c r="F43" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22" t="n">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="23" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="22" t="n">
+      <c r="C45" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="22" t="n">
+      <c r="F45" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="22" t="n">
+      <c r="G45" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="H45" s="22" t="n">
+      <c r="H45" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="23" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="n">
+      <c r="E46" s="21"/>
+      <c r="F46" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="23" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="C47" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="27" t="s">
+      <c r="G47" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="25" t="s">
+      <c r="C48" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25" t="n">
+      <c r="E48" s="24"/>
+      <c r="F48" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K48" s="26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="n">
+      <c r="E49" s="24"/>
+      <c r="F49" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25" t="n">
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="J49" s="27" t="s">
+      <c r="J49" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="K49" s="27" t="s">
+      <c r="K49" s="26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C50" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="25" t="s">
+      <c r="C50" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25" t="n">
+      <c r="E50" s="24"/>
+      <c r="F50" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="J50" s="27" t="s">
+      <c r="J50" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="K50" s="26" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C51" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="C51" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25" t="n">
+      <c r="E51" s="24"/>
+      <c r="F51" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="J51" s="27" t="s">
+      <c r="J51" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K51" s="27" t="s">
+      <c r="K51" s="26" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="28" t="s">
+      <c r="C52" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28" t="n">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="J52" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="29" t="s">
         <v>254</v>
       </c>
     </row>

--- a/PyMaster/card.xlsx
+++ b/PyMaster/card.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat33\Desktop\PyMaster\PyMaster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3140DCD-AE1B-48A5-8A44-143409E724CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,802 +25,799 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="255">
-  <si>
-    <t xml:space="preserve">classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nmb_effet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effet_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effet_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeur_effet_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeur_effet_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petit_sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grand_sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pichenette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 1 point de dégat à l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pichenette.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pichenette1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaque de fer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagne 1 point d'armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/plaque_de_fer.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/plaque_de_fer1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petite Potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaure 1 point de vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/petite_potion.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/petite_potion1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">draw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pioche 1 carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/draw.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/draw1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vampirisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 1 point de dégat à l'adversaire et restaure 1 point de vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/vampirisme.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/vampirisme1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He attac, he prottec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 1 point de dégat à l'adversaire et gagne 1 point d'armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/he_attacc_he_protecc.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/he_attacc_he_protecc1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_neutre1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : au prochain dégats recus, les divise par deux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/divide.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/divide1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_neutre2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : au prochain dégats recus, renvoie la moitié sur l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/parade.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/parade1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gotcha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_neutre3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : au prochain dégats recus, pioche 2 cartes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/gotcha.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/gotcha1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloque les effets de soin et d'armure de l'adversaire au prochain tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/nope.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/nope1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coup de couteau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 3 point de dégat à l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/coup_de_couteau.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/coup_de_couteau1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacrifice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 5 point de dégat à l'adversaire mais défausse une carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/sacrifice.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/sacrifice1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit &amp; retreat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 3 point de dégat à l'adversaire et pioche une carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/hit_and_retreat.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/hit_and_retreat1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poing Claque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 4 point de dégat à l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/poing_claque.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/poing_claque1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion de Soin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaure 4 point de vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/potion_de_soin.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/potion_de_soin1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouclier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagne 4 point d'armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/bouclier.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/bouclier1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pioche 2 carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/draaw.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/draaw1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descente du coude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 5 point de dégat à l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/descente_du_coude.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/descente_du_coude1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armuré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagne 5 point d'armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/armure.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/armure1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouvoir illimité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boost_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vos prochain dégats sont multiplié par 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pouvoir_illimite.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pouvoir_illimite1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Béni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boost_heal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vos prochain soins sont multiplié par 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/beni.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/beni1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invocation suprême</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 8 point de dégat à l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/invocation_supreme.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/invocation_supreme1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Suprême</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaure 8 point de vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/potion_supreme.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/potion_supreme1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malédiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divise la vie de l'adversaire par 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/malediction.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/malediction1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revigoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mult_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double vos points de vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/revigoration.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/revigoration1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rituel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagne 1 d'endurance mais défausse 1 carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/rituel.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/rituel1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Répit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : bloque les prochains dégats recus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/repit.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/repit1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplique une carte de votre main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/duplication.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/duplication1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savoir Millénaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 4 point de dégat à l'adversaire, pioche 2 cartes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/savoir_millenaire.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/savoir_millenaire1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNLIMITED POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 5 points de dégat à l'adversaire, remet l'endurance au maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/unlimited_power.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/unlimited_power1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je suis un mur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boost_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au prochain dégats recus, les divise par deux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/je_suis_un_mur.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/je_suis_un_mur1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retour à l'envoyeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_guerrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : au prochain dégats recus, les inflige a l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/retour_a_l_envoyeur.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/retour_a_l_envoyeur1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masamune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige autant de dégats que vous avez de cartes dans la main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/masamune.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/masamune1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patate De Forain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 7 points de dégats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/patate_de_forain.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/patate_de_forain1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contre Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige autant de dégats que vous en avez subi durant la partie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/contre_total.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/contre_total1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninjaaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esquive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquive les prochains dégats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/ninjaaa.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/ninjaaa1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickpocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_voleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : au prochain dégats recu, vole une carte a l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pickpocket.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pickpocket1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatigue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stamina_destroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Détruit un d'endurance de l'adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/fatigue.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/fatigue1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redbulled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stamina_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendant le prochain tour, les cartes de l'adversaire coûtent deux d'énergie de plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/redbulled.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/redbulled1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHREKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defausse_adv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Défausse la main de votre adversaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/shreked.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/shreked1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecanicien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frappe protectrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige 2 points de dégats et gagne 1 point d'armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/frappe_protectrice.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/frappe_protectrice1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agglomération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_mecanicien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : gagne 4 point d'armure au prochain dégats subis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/agglomeration.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/agglomeration1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make it Double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boost_armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double votre armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/make_it_double.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/make_it_double1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Totale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagne 5 d'armures et pioche 2 cartes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/la_totale.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/la_totale1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J’suis un Tank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armor_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige autant de dégats que vous avez d'armure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/jsuis_un_tank.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/jsuis_un_tank1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Départ rapide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soigne 2 points de vie et pioche une carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/depart_rapide.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/depart_rapide1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_pretre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret : divise les prochains dégats recus par deux et les transforme en soin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/thank_you.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/thank_you1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cercle de Soin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaure 5 points de vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/cercle_de_soin.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/cercle_de_soin1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouvoir Grandissant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_heal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaure autant de pv qu'il y a de cartes dans votre main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pouvoir_grandissant.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/pouvoir_grandissant1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seconde Vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heal_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflige à l'adversaire autant de dégats que de points de vie que vous vous êtes soigné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/seconde_vie.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/seconde_vie1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp_stamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous donne 1 d'endurance durant ce tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/boost.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/boost1.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="260">
+  <si>
+    <t>classe</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>nmb_effet</t>
+  </si>
+  <si>
+    <t>effet_0</t>
+  </si>
+  <si>
+    <t>effet_1</t>
+  </si>
+  <si>
+    <t>valeur_effet_0</t>
+  </si>
+  <si>
+    <t>valeur_effet_1</t>
+  </si>
+  <si>
+    <t>cout</t>
+  </si>
+  <si>
+    <t>effet</t>
+  </si>
+  <si>
+    <t>petit_sprite</t>
+  </si>
+  <si>
+    <t>grand_sprite</t>
+  </si>
+  <si>
+    <t>Neutre</t>
+  </si>
+  <si>
+    <t>Pichenette</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>Inflige 1 point de dégat à l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/pichenette.png</t>
+  </si>
+  <si>
+    <t>sprite/pichenette1.png</t>
+  </si>
+  <si>
+    <t>Plaque de fer</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>Gagne 1 point d'armure</t>
+  </si>
+  <si>
+    <t>sprite/plaque_de_fer.png</t>
+  </si>
+  <si>
+    <t>sprite/plaque_de_fer1.png</t>
+  </si>
+  <si>
+    <t>Petite Potion</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>Restaure 1 point de vie</t>
+  </si>
+  <si>
+    <t>sprite/petite_potion.png</t>
+  </si>
+  <si>
+    <t>sprite/petite_potion1.png</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>Pioche 1 carte</t>
+  </si>
+  <si>
+    <t>sprite/draw.png</t>
+  </si>
+  <si>
+    <t>sprite/draw1.png</t>
+  </si>
+  <si>
+    <t>Vampirisme</t>
+  </si>
+  <si>
+    <t>Inflige 1 point de dégat à l'adversaire et restaure 1 point de vie</t>
+  </si>
+  <si>
+    <t>sprite/vampirisme.png</t>
+  </si>
+  <si>
+    <t>sprite/vampirisme1.png</t>
+  </si>
+  <si>
+    <t>He attac, he prottec</t>
+  </si>
+  <si>
+    <t>Inflige 1 point de dégat à l'adversaire et gagne 1 point d'armure</t>
+  </si>
+  <si>
+    <t>sprite/he_attacc_he_protecc.png</t>
+  </si>
+  <si>
+    <t>sprite/he_attacc_he_protecc1.png</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>secret_neutre1</t>
+  </si>
+  <si>
+    <t>Secret : au prochain dégats recus, les divise par deux</t>
+  </si>
+  <si>
+    <t>sprite/divide.png</t>
+  </si>
+  <si>
+    <t>sprite/divide1.png</t>
+  </si>
+  <si>
+    <t>Parade</t>
+  </si>
+  <si>
+    <t>secret_neutre2</t>
+  </si>
+  <si>
+    <t>Secret : au prochain dégats recus, renvoie la moitié sur l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/parade.png</t>
+  </si>
+  <si>
+    <t>sprite/parade1.png</t>
+  </si>
+  <si>
+    <t>Gotcha</t>
+  </si>
+  <si>
+    <t>secret_neutre3</t>
+  </si>
+  <si>
+    <t>Secret : au prochain dégats recus, pioche 2 cartes</t>
+  </si>
+  <si>
+    <t>sprite/gotcha.png</t>
+  </si>
+  <si>
+    <t>sprite/gotcha1.png</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>bloque</t>
+  </si>
+  <si>
+    <t>Bloque les effets de soin et d'armure de l'adversaire au prochain tour</t>
+  </si>
+  <si>
+    <t>sprite/nope.png</t>
+  </si>
+  <si>
+    <t>sprite/nope1.png</t>
+  </si>
+  <si>
+    <t>Coup de couteau</t>
+  </si>
+  <si>
+    <t>Inflige 3 point de dégat à l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/coup_de_couteau.png</t>
+  </si>
+  <si>
+    <t>sprite/coup_de_couteau1.png</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>Inflige 5 point de dégat à l'adversaire mais défausse une carte</t>
+  </si>
+  <si>
+    <t>sprite/sacrifice.png</t>
+  </si>
+  <si>
+    <t>sprite/sacrifice1.png</t>
+  </si>
+  <si>
+    <t>Hit &amp; retreat</t>
+  </si>
+  <si>
+    <t>Inflige 3 point de dégat à l'adversaire et pioche une carte</t>
+  </si>
+  <si>
+    <t>sprite/hit_and_retreat.png</t>
+  </si>
+  <si>
+    <t>sprite/hit_and_retreat1.png</t>
+  </si>
+  <si>
+    <t>Poing Claque</t>
+  </si>
+  <si>
+    <t>Inflige 4 point de dégat à l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/poing_claque.png</t>
+  </si>
+  <si>
+    <t>sprite/poing_claque1.png</t>
+  </si>
+  <si>
+    <t>Potion de Soin</t>
+  </si>
+  <si>
+    <t>Restaure 4 point de vie</t>
+  </si>
+  <si>
+    <t>sprite/potion_de_soin.png</t>
+  </si>
+  <si>
+    <t>sprite/potion_de_soin1.png</t>
+  </si>
+  <si>
+    <t>Bouclier</t>
+  </si>
+  <si>
+    <t>Gagne 4 point d'armure</t>
+  </si>
+  <si>
+    <t>sprite/bouclier.png</t>
+  </si>
+  <si>
+    <t>sprite/bouclier1.png</t>
+  </si>
+  <si>
+    <t>Draaw</t>
+  </si>
+  <si>
+    <t>Pioche 2 carte</t>
+  </si>
+  <si>
+    <t>sprite/draaw.png</t>
+  </si>
+  <si>
+    <t>sprite/draaw1.png</t>
+  </si>
+  <si>
+    <t>Descente du coude</t>
+  </si>
+  <si>
+    <t>Inflige 5 point de dégat à l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/descente_du_coude.png</t>
+  </si>
+  <si>
+    <t>sprite/descente_du_coude1.png</t>
+  </si>
+  <si>
+    <t>Armuré</t>
+  </si>
+  <si>
+    <t>Gagne 5 point d'armure</t>
+  </si>
+  <si>
+    <t>sprite/armure.png</t>
+  </si>
+  <si>
+    <t>sprite/armure1.png</t>
+  </si>
+  <si>
+    <t>Pouvoir illimité</t>
+  </si>
+  <si>
+    <t>boost_damage</t>
+  </si>
+  <si>
+    <t>Vos prochain dégats sont multiplié par 2</t>
+  </si>
+  <si>
+    <t>sprite/pouvoir_illimite.png</t>
+  </si>
+  <si>
+    <t>sprite/pouvoir_illimite1.png</t>
+  </si>
+  <si>
+    <t>Béni</t>
+  </si>
+  <si>
+    <t>boost_heal</t>
+  </si>
+  <si>
+    <t>Vos prochain soins sont multiplié par 2</t>
+  </si>
+  <si>
+    <t>sprite/beni.png</t>
+  </si>
+  <si>
+    <t>sprite/beni1.png</t>
+  </si>
+  <si>
+    <t>Invocation suprême</t>
+  </si>
+  <si>
+    <t>Inflige 8 point de dégat à l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/invocation_supreme.png</t>
+  </si>
+  <si>
+    <t>sprite/invocation_supreme1.png</t>
+  </si>
+  <si>
+    <t>Potion Suprême</t>
+  </si>
+  <si>
+    <t>Restaure 8 point de vie</t>
+  </si>
+  <si>
+    <t>sprite/potion_supreme.png</t>
+  </si>
+  <si>
+    <t>sprite/potion_supreme1.png</t>
+  </si>
+  <si>
+    <t>Malédiction</t>
+  </si>
+  <si>
+    <t>div_hp</t>
+  </si>
+  <si>
+    <t>Divise la vie de l'adversaire par 2</t>
+  </si>
+  <si>
+    <t>sprite/malediction.png</t>
+  </si>
+  <si>
+    <t>sprite/malediction1.png</t>
+  </si>
+  <si>
+    <t>Revigoration</t>
+  </si>
+  <si>
+    <t>mult_hp</t>
+  </si>
+  <si>
+    <t>Double vos points de vie</t>
+  </si>
+  <si>
+    <t>sprite/revigoration.png</t>
+  </si>
+  <si>
+    <t>sprite/revigoration1.png</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Rituel</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>Gagne 1 d'endurance mais défausse 1 carte</t>
+  </si>
+  <si>
+    <t>sprite/rituel.png</t>
+  </si>
+  <si>
+    <t>sprite/rituel1.png</t>
+  </si>
+  <si>
+    <t>Répit</t>
+  </si>
+  <si>
+    <t>secret_mage</t>
+  </si>
+  <si>
+    <t>Secret : bloque les prochains dégats recus</t>
+  </si>
+  <si>
+    <t>sprite/repit.png</t>
+  </si>
+  <si>
+    <t>sprite/repit1.png</t>
+  </si>
+  <si>
+    <t>Duplication</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Duplique une carte de votre main</t>
+  </si>
+  <si>
+    <t>sprite/duplication.png</t>
+  </si>
+  <si>
+    <t>sprite/duplication1.png</t>
+  </si>
+  <si>
+    <t>Savoir Millénaire</t>
+  </si>
+  <si>
+    <t>Inflige 4 point de dégat à l'adversaire, pioche 2 cartes</t>
+  </si>
+  <si>
+    <t>sprite/savoir_millenaire.png</t>
+  </si>
+  <si>
+    <t>sprite/savoir_millenaire1.png</t>
+  </si>
+  <si>
+    <t>UNLIMITED POWER</t>
+  </si>
+  <si>
+    <t>refill</t>
+  </si>
+  <si>
+    <t>Inflige 5 points de dégat à l'adversaire, remet l'endurance au maximum</t>
+  </si>
+  <si>
+    <t>sprite/unlimited_power.png</t>
+  </si>
+  <si>
+    <t>sprite/unlimited_power1.png</t>
+  </si>
+  <si>
+    <t>Guerrier</t>
+  </si>
+  <si>
+    <t>Je suis un mur</t>
+  </si>
+  <si>
+    <t>boost_def</t>
+  </si>
+  <si>
+    <t>Au prochain dégats recus, les divise par deux</t>
+  </si>
+  <si>
+    <t>sprite/je_suis_un_mur.png</t>
+  </si>
+  <si>
+    <t>sprite/je_suis_un_mur1.png</t>
+  </si>
+  <si>
+    <t>Retour à l'envoyeur</t>
+  </si>
+  <si>
+    <t>secret_guerrier</t>
+  </si>
+  <si>
+    <t>Secret : au prochain dégats recus, les inflige a l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/retour_a_l_envoyeur.png</t>
+  </si>
+  <si>
+    <t>sprite/retour_a_l_envoyeur1.png</t>
+  </si>
+  <si>
+    <t>Masamune</t>
+  </si>
+  <si>
+    <t>card_damage</t>
+  </si>
+  <si>
+    <t>Inflige autant de dégats que vous avez de cartes dans la main</t>
+  </si>
+  <si>
+    <t>sprite/masamune.png</t>
+  </si>
+  <si>
+    <t>sprite/masamune1.png</t>
+  </si>
+  <si>
+    <t>Patate De Forain</t>
+  </si>
+  <si>
+    <t>Inflige 7 points de dégats</t>
+  </si>
+  <si>
+    <t>sprite/patate_de_forain.png</t>
+  </si>
+  <si>
+    <t>sprite/patate_de_forain1.png</t>
+  </si>
+  <si>
+    <t>Contre Total</t>
+  </si>
+  <si>
+    <t>return_damage</t>
+  </si>
+  <si>
+    <t>Inflige autant de dégats que vous en avez subi durant la partie</t>
+  </si>
+  <si>
+    <t>sprite/contre_total.png</t>
+  </si>
+  <si>
+    <t>sprite/contre_total1.png</t>
+  </si>
+  <si>
+    <t>Voleur</t>
+  </si>
+  <si>
+    <t>Ninjaaa</t>
+  </si>
+  <si>
+    <t>esquive</t>
+  </si>
+  <si>
+    <t>Esquive les prochains dégats</t>
+  </si>
+  <si>
+    <t>sprite/ninjaaa.png</t>
+  </si>
+  <si>
+    <t>sprite/ninjaaa1.png</t>
+  </si>
+  <si>
+    <t>Pickpocket</t>
+  </si>
+  <si>
+    <t>secret_voleur</t>
+  </si>
+  <si>
+    <t>Secret : au prochain dégats recu, vole une carte a l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/pickpocket.png</t>
+  </si>
+  <si>
+    <t>sprite/pickpocket1.png</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>stamina_destroy</t>
+  </si>
+  <si>
+    <t>Détruit un d'endurance de l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/fatigue.png</t>
+  </si>
+  <si>
+    <t>sprite/fatigue1.png</t>
+  </si>
+  <si>
+    <t>Redbulled</t>
+  </si>
+  <si>
+    <t>stamina_increase</t>
+  </si>
+  <si>
+    <t>Pendant le prochain tour, les cartes de l'adversaire coûtent deux d'énergie de plus</t>
+  </si>
+  <si>
+    <t>sprite/redbulled.png</t>
+  </si>
+  <si>
+    <t>sprite/redbulled1.png</t>
+  </si>
+  <si>
+    <t>SHREKED</t>
+  </si>
+  <si>
+    <t>defausse_adv</t>
+  </si>
+  <si>
+    <t>Défausse la main de votre adversaire</t>
+  </si>
+  <si>
+    <t>sprite/shreked.png</t>
+  </si>
+  <si>
+    <t>sprite/shreked1.png</t>
+  </si>
+  <si>
+    <t>Mecanicien</t>
+  </si>
+  <si>
+    <t>Frappe protectrice</t>
+  </si>
+  <si>
+    <t>Inflige 2 points de dégats et gagne 1 point d'armure</t>
+  </si>
+  <si>
+    <t>sprite/frappe_protectrice.png</t>
+  </si>
+  <si>
+    <t>sprite/frappe_protectrice1.png</t>
+  </si>
+  <si>
+    <t>Agglomération</t>
+  </si>
+  <si>
+    <t>secret_mecanicien</t>
+  </si>
+  <si>
+    <t>Secret : gagne 4 point d'armure au prochain dégats subis</t>
+  </si>
+  <si>
+    <t>sprite/agglomeration.png</t>
+  </si>
+  <si>
+    <t>sprite/agglomeration1.png</t>
+  </si>
+  <si>
+    <t>Make it Double</t>
+  </si>
+  <si>
+    <t>boost_armor</t>
+  </si>
+  <si>
+    <t>Double votre armure</t>
+  </si>
+  <si>
+    <t>sprite/make_it_double.png</t>
+  </si>
+  <si>
+    <t>sprite/make_it_double1.png</t>
+  </si>
+  <si>
+    <t>La Totale</t>
+  </si>
+  <si>
+    <t>Gagne 5 d'armures et pioche 2 cartes</t>
+  </si>
+  <si>
+    <t>sprite/la_totale.png</t>
+  </si>
+  <si>
+    <t>sprite/la_totale1.png</t>
+  </si>
+  <si>
+    <t>J’suis un Tank</t>
+  </si>
+  <si>
+    <t>armor_damage</t>
+  </si>
+  <si>
+    <t>Inflige autant de dégats que vous avez d'armure</t>
+  </si>
+  <si>
+    <t>sprite/jsuis_un_tank.png</t>
+  </si>
+  <si>
+    <t>sprite/jsuis_un_tank1.png</t>
+  </si>
+  <si>
+    <t>Pretre</t>
+  </si>
+  <si>
+    <t>Départ rapide</t>
+  </si>
+  <si>
+    <t>Soigne 2 points de vie et pioche une carte</t>
+  </si>
+  <si>
+    <t>sprite/depart_rapide.png</t>
+  </si>
+  <si>
+    <t>sprite/depart_rapide1.png</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>secret_pretre</t>
+  </si>
+  <si>
+    <t>Secret : divise les prochains dégats recus par deux et les transforme en soin</t>
+  </si>
+  <si>
+    <t>sprite/thank_you.png</t>
+  </si>
+  <si>
+    <t>sprite/thank_you1.png</t>
+  </si>
+  <si>
+    <t>Cercle de Soin</t>
+  </si>
+  <si>
+    <t>Restaure 5 points de vie</t>
+  </si>
+  <si>
+    <t>sprite/cercle_de_soin.png</t>
+  </si>
+  <si>
+    <t>sprite/cercle_de_soin1.png</t>
+  </si>
+  <si>
+    <t>Pouvoir Grandissant</t>
+  </si>
+  <si>
+    <t>hand_heal</t>
+  </si>
+  <si>
+    <t>Restaure autant de pv qu'il y a de cartes dans votre main</t>
+  </si>
+  <si>
+    <t>sprite/pouvoir_grandissant.png</t>
+  </si>
+  <si>
+    <t>sprite/pouvoir_grandissant1.png</t>
+  </si>
+  <si>
+    <t>Seconde Vie</t>
+  </si>
+  <si>
+    <t>heal_damage</t>
+  </si>
+  <si>
+    <t>Inflige à l'adversaire autant de dégats que de points de vie que vous vous êtes soigné</t>
+  </si>
+  <si>
+    <t>sprite/seconde_vie.png</t>
+  </si>
+  <si>
+    <t>sprite/seconde_vie1.png</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>temp_stamina</t>
+  </si>
+  <si>
+    <t>Vous donne 1 d'endurance durant ce tour</t>
+  </si>
+  <si>
+    <t>sprite/boost.png</t>
+  </si>
+  <si>
+    <t>sprite/boost1.png</t>
+  </si>
+  <si>
+    <t>Piquared</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>Tue l'adversaire</t>
+  </si>
+  <si>
+    <t>sprite/piquared.png</t>
+  </si>
+  <si>
+    <t>sprite/piquared1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -825,7 +827,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,178 +888,143 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1116,38 +1083,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K53" sqref="A53:K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="14.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="127.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.67"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="127.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.21875" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1182,25 +1457,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -1213,25 +1488,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -1244,25 +1519,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1275,25 +1550,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1306,14 +1581,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1322,13 +1597,13 @@
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="n">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
         <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1341,14 +1616,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1357,13 +1632,13 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>2</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1376,25 +1651,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>3</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1407,25 +1682,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>3</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1438,25 +1713,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>2</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1469,25 +1744,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>0</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>4</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1500,25 +1775,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>3</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="6">
         <v>4</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -1531,14 +1806,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1547,13 +1822,13 @@
       <c r="E13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="n">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
         <v>4</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -1566,14 +1841,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1582,13 +1857,13 @@
       <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="n">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
         <v>5</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1601,25 +1876,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>4</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1632,25 +1907,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>4</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>6</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -1663,25 +1938,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="6">
         <v>6</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1694,25 +1969,25 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="6">
         <v>2</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="6">
         <v>6</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -1725,25 +2000,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>5</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="6">
         <v>7</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1756,25 +2031,25 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>5</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="6">
         <v>7</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1787,25 +2062,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="6">
         <v>8</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -1818,25 +2093,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="6">
         <v>8</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -1849,25 +2124,25 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="true" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="6">
         <v>8</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="6">
         <v>9</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -1880,25 +2155,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="6">
         <v>8</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="6">
         <v>9</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -1911,25 +2186,25 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="6">
         <v>10</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -1942,25 +2217,25 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="6">
         <v>10</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -1973,14 +2248,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1989,13 +2264,13 @@
       <c r="E27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="n">
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
@@ -2008,25 +2283,25 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="11">
         <v>1</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="11" t="n">
+      <c r="H28" s="11">
         <v>3</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -2039,25 +2314,25 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="11">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="11">
         <v>1</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="11">
         <v>5</v>
       </c>
       <c r="I29" s="13" t="s">
@@ -2070,14 +2345,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -2086,13 +2361,13 @@
       <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="11">
         <v>4</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="11">
         <v>2</v>
       </c>
-      <c r="H30" s="11" t="n">
+      <c r="H30" s="11">
         <v>7</v>
       </c>
       <c r="I30" s="13" t="s">
@@ -2105,14 +2380,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="11">
         <v>2</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -2121,13 +2396,13 @@
       <c r="E31" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="11">
         <v>5</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11" t="n">
+      <c r="H31" s="11">
         <v>9</v>
       </c>
       <c r="I31" s="13" t="s">
@@ -2140,25 +2415,25 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="14">
         <v>1</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="16" t="n">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="n">
+      <c r="H32" s="14">
         <v>1</v>
       </c>
       <c r="I32" s="17" t="s">
@@ -2171,25 +2446,25 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="14">
         <v>1</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="14">
         <v>1</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14" t="n">
+      <c r="H33" s="14">
         <v>3</v>
       </c>
       <c r="I33" s="17" t="s">
@@ -2202,25 +2477,25 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="14">
         <v>1</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="14" t="n">
+      <c r="F34" s="14">
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="n">
+      <c r="H34" s="14">
         <v>5</v>
       </c>
       <c r="I34" s="17" t="s">
@@ -2233,25 +2508,25 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C35" s="14">
         <v>1</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="14" t="n">
+      <c r="F35" s="14">
         <v>7</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="14" t="n">
+      <c r="H35" s="14">
         <v>7</v>
       </c>
       <c r="I35" s="17" t="s">
@@ -2264,25 +2539,25 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="14">
         <v>1</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>171</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="14">
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14" t="n">
+      <c r="H36" s="14">
         <v>9</v>
       </c>
       <c r="I36" s="17" t="s">
@@ -2295,25 +2570,25 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="18" t="n">
+      <c r="C37" s="18">
         <v>1</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="18"/>
-      <c r="F37" s="18" t="n">
+      <c r="F37" s="18">
         <v>1</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="18" t="n">
+      <c r="H37" s="18">
         <v>1</v>
       </c>
       <c r="I37" s="20" t="s">
@@ -2326,25 +2601,25 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="18" t="n">
+      <c r="C38" s="18">
         <v>1</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="18" t="n">
+      <c r="F38" s="18">
         <v>1</v>
       </c>
       <c r="G38" s="18"/>
-      <c r="H38" s="18" t="n">
+      <c r="H38" s="18">
         <v>3</v>
       </c>
       <c r="I38" s="20" t="s">
@@ -2357,25 +2632,25 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="18">
         <v>1</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>187</v>
       </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="18" t="n">
+      <c r="F39" s="18">
         <v>0</v>
       </c>
       <c r="G39" s="18"/>
-      <c r="H39" s="18" t="n">
+      <c r="H39" s="18">
         <v>5</v>
       </c>
       <c r="I39" s="20" t="s">
@@ -2388,25 +2663,25 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="18">
         <v>1</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>192</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="18" t="n">
+      <c r="F40" s="18">
         <v>0</v>
       </c>
       <c r="G40" s="18"/>
-      <c r="H40" s="18" t="n">
+      <c r="H40" s="18">
         <v>7</v>
       </c>
       <c r="I40" s="20" t="s">
@@ -2419,25 +2694,25 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="18" t="n">
+      <c r="C41" s="18">
         <v>1</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>197</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="18" t="n">
+      <c r="F41" s="18">
         <v>1</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="18">
         <v>9</v>
       </c>
       <c r="I41" s="20" t="s">
@@ -2450,14 +2725,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="21" t="n">
+      <c r="C42" s="21">
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -2466,13 +2741,13 @@
       <c r="E42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="21" t="n">
+      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+      <c r="G42" s="21">
         <v>2</v>
       </c>
-      <c r="H42" s="21" t="n">
+      <c r="H42" s="21">
         <v>1</v>
       </c>
       <c r="I42" s="23" t="s">
@@ -2485,25 +2760,25 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="21" t="n">
+      <c r="C43" s="21">
         <v>1</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>207</v>
       </c>
       <c r="E43" s="21"/>
-      <c r="F43" s="21" t="n">
+      <c r="F43" s="21">
         <v>1</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="21" t="n">
+      <c r="H43" s="21">
         <v>3</v>
       </c>
       <c r="I43" s="23" t="s">
@@ -2516,25 +2791,25 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="21" t="n">
+      <c r="C44" s="21">
         <v>1</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>212</v>
       </c>
       <c r="E44" s="21"/>
-      <c r="F44" s="21" t="n">
+      <c r="F44" s="21">
         <v>1</v>
       </c>
       <c r="G44" s="21"/>
-      <c r="H44" s="21" t="n">
+      <c r="H44" s="21">
         <v>5</v>
       </c>
       <c r="I44" s="23" t="s">
@@ -2547,14 +2822,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="21" t="n">
+      <c r="C45" s="21">
         <v>2</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -2563,13 +2838,13 @@
       <c r="E45" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="21" t="n">
+      <c r="F45" s="21">
         <v>5</v>
       </c>
-      <c r="G45" s="21" t="n">
+      <c r="G45" s="21">
         <v>2</v>
       </c>
-      <c r="H45" s="21" t="n">
+      <c r="H45" s="21">
         <v>7</v>
       </c>
       <c r="I45" s="23" t="s">
@@ -2582,25 +2857,25 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="21" t="n">
+      <c r="C46" s="21">
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>221</v>
       </c>
       <c r="E46" s="21"/>
-      <c r="F46" s="21" t="n">
+      <c r="F46" s="21">
         <v>1</v>
       </c>
       <c r="G46" s="21"/>
-      <c r="H46" s="21" t="n">
+      <c r="H46" s="21">
         <v>9</v>
       </c>
       <c r="I46" s="23" t="s">
@@ -2613,14 +2888,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="24" t="n">
+      <c r="C47" s="24">
         <v>2</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -2629,13 +2904,13 @@
       <c r="E47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="24" t="n">
+      <c r="F47" s="24">
         <v>2</v>
       </c>
-      <c r="G47" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="24" t="n">
+      <c r="G47" s="24">
+        <v>1</v>
+      </c>
+      <c r="H47" s="24">
         <v>1</v>
       </c>
       <c r="I47" s="26" t="s">
@@ -2648,25 +2923,25 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="24" t="n">
+      <c r="C48" s="24">
         <v>1</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>231</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="24" t="n">
+      <c r="F48" s="24">
         <v>1</v>
       </c>
       <c r="G48" s="24"/>
-      <c r="H48" s="24" t="n">
+      <c r="H48" s="24">
         <v>3</v>
       </c>
       <c r="I48" s="26" t="s">
@@ -2679,25 +2954,25 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="24" t="n">
+      <c r="C49" s="24">
         <v>1</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="24" t="n">
+      <c r="F49" s="24">
         <v>5</v>
       </c>
       <c r="G49" s="24"/>
-      <c r="H49" s="24" t="n">
+      <c r="H49" s="24">
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
@@ -2710,25 +2985,25 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C50" s="24" t="n">
+      <c r="C50" s="24">
         <v>1</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>240</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="24" t="n">
+      <c r="F50" s="24">
         <v>1</v>
       </c>
       <c r="G50" s="24"/>
-      <c r="H50" s="24" t="n">
+      <c r="H50" s="24">
         <v>7</v>
       </c>
       <c r="I50" s="26" t="s">
@@ -2741,25 +3016,25 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C51" s="24" t="n">
+      <c r="C51" s="24">
         <v>1</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>245</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="24" t="n">
+      <c r="F51" s="24">
         <v>1</v>
       </c>
       <c r="G51" s="24"/>
-      <c r="H51" s="24" t="n">
+      <c r="H51" s="24">
         <v>9</v>
       </c>
       <c r="I51" s="26" t="s">
@@ -2772,25 +3047,25 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>249</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="27" t="n">
+      <c r="C52" s="27">
         <v>1</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>251</v>
       </c>
       <c r="E52" s="27"/>
-      <c r="F52" s="27" t="n">
+      <c r="F52" s="27">
         <v>1</v>
       </c>
       <c r="G52" s="27"/>
-      <c r="H52" s="27" t="n">
+      <c r="H52" s="27">
         <v>0</v>
       </c>
       <c r="I52" s="29" t="s">
@@ -2803,13 +3078,39 @@
         <v>254</v>
       </c>
     </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="32">
+        <v>1</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32">
+        <v>300</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32">
+        <v>10</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>